--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560372/JX560372_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560372/JX560372_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89329670621</v>
+        <v>45441.8335530875</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1561c&gt;g']</t>
+          <t>['1732_1797del', '1611_1726insactgctgcacattgaatcctggcaagcaaacagactcctgtgtcgacatttcgaataatgaaataccgcgtaagagtacgcttcgcgggtccgtttacaggaacataagataccc', '1641_1711insgtgatcaacaactttcatcctcgtgccactctgactgtggggtgcaggtaagagcagggataaaatgcca', '1616_1696insttgctgatcggagaccaaggttactcactgttgaggctcaggtatagcaagagtgccgcgccttttcaaatcaccatcgg', '1585_1676insgcgagtgtctagacgacctagtggtttctgactgctgccggttctcttgtgcagagcacagccaacattcccggggtgttcgcttcgaatt']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89329672935</v>
+        <v>45441.83355311646</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['656c&gt;t']</t>
+          <t>['612_656insaggcagatacaagtacgccgcgatacgatgccgggtcccgacat', '632_728del', '602_625instaccgccggaagactcctggagc', '623_675insgagctcgccttagtttagagcgtggtgcatgactggcgctagacgcctctgt', '667_781insttgggaccctcataccacgcctacgtgcattcccatgctccacttgtcctccaggtatttgcacgtaactcattcatagtaacaagaagaagcttttcagccgatcggaagaca']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.8932967525</v>
+        <v>45441.83355313961</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3359_3363del']</t>
+          <t>['3417_3511del', '3351_3361insccgaggagtt', '3347_3365del', '3372_3484del', '3387_3423del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89329677565</v>
+        <v>45441.83355316277</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1748_1749del']</t>
+          <t>['1769_1816del', '1721_1834del', '1602_1672del', '1736_1848insatctaacctaagatacgactcagatgccatccgagtatttcccaactctactgaataataatagtcgtcgaaactcgtcggcaacttagcagaggtgacacctgtaaggcat', '1690_1769del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['633t&gt;c']</t>
+          <t>['610_644instactattgccgcccaatcgacggagtataatgac', '625_775insagtcggtgggtaagcgcctgggaacacaagtagtacgaccgtgccgggactggatctccgctataacttgtttacttgatctatcgacaactcataagacggggggctattcattgtaggtaccgcagtgctgcaactgtgcaagttcag', '680_753insgagagccagttgcggtgaatctcttctaaatgtcacctgcgctaacaaccacagtctagtagcttggagctta', '677_764inscgcagattgaacccaccatccaacaacgagccctacagggcgctcggggtcattcgctaaagagtgtgctctgtaataagttcattt', '618_673inscaaagaacaaccttcattgtctgtaaataacggccactgatagagcgaatctcaa']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89329679879</v>
+        <v>45441.83355318593</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1687_1690del']</t>
+          <t>['1600_1634insgaacaaaacggcctgctcgggaaatggttctcgg', '1799_1863insgttagggtgtgtggagattaaaggccgcgagccattttctttaatgatgccaagttcttatcgg', '1626_1738del', '1558_1573del', '1570_1597del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3363a&gt;t']</t>
+          <t>['3365_3506del', '3397_3505del', '3411_3429insaacaataataaaacctgt', '3437_3509del', '3377_3496del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89329681623</v>
+        <v>45441.83355321451</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['618g&gt;c']</t>
+          <t>['661_779insaggcggtcacttaaagccaagttgagacgagagagaatggctgcttaatactttactatccgcattcgctccagaccaatctgttgtctcaaacctgcgtaactcagaagctcgttat', '637_747insccgttggaccaccggcgagagttgaggtgaagcacctcccgtcaggcggggggtgactcgcagtgtatgggacgtgaggtcaaccgctagggcaaacaatatgtgtcttg', '662_752insgtcgggttgtcgcgcttcacttccggcgtacgtcatgacagtgagaaaagacataggaacttcagccagcagtgacatacccaaaagcag', '615_673instgcacggatacaagtgtcacttctccacaggaggactctggctagatgcaatagtgaa', '681_787insgatccggccaaaggaccggcacacggccaatcgctttgttccttgtacccgacactttccgactcacgcgccggacccattatttgttgtcataacgcctgaacgc']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3372_3375del']</t>
+          <t>['3358_3391del', '3412_3434insatcatgccaattcttgcggctc', '3425_3506del', '3432_3516del', '3391_3439insaggtctaccccatgggtcaccatagcggtccccgctcgcgtcaacgtt']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89329683936</v>
+        <v>45441.83355323704</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1649_1651del']</t>
+          <t>['1715_1758del', '1699_1722del', '1705_1773del', '1661_1749inscaccacagaaacttgccaagggtcctgcgaatcgatacaatttgagtacgccaagaaccaggggcactttacataagtaggcttcccc', '1799_1830del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['621_623del']</t>
+          <t>['684_777insagaccagagtctagccatcggcgcagcagcaaagccctactgccgagggtggcccgaatgccgcttagatgccaaatgaggtatacacaaaag', '658_722instcaattaggagaagaaaagccggggcaatgtatttacgaagagcgcaacagtgagcgggtgggg', '669_698insgaaaaccaaccggcttactgtgcacgcct', '651_700del', '672_757del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3429t&gt;g']</t>
+          <t>['3380_3391insccttgctagcg', '3380_3405del', '3401_3539insgtaaagaagatggacgagtaacaagtaagaggtggcagagaacctcaagaggggcgacgagccggtgttatgaacggctcaacatcgactgcacctcgccaaatatggcgagttccgatttgccagtaatgcttgcga', '3438_3541insaacgcgggaacggttagccaccccttgaaataacaacagttgctacagaaggccgagatggggggcatgcttggaactcatctcaccgctctagacgcgggat', '3378_3463del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89329685674</v>
+        <v>45441.83355325978</v>
       </c>
     </row>
   </sheetData>
